--- a/valid mode bit table.xlsx
+++ b/valid mode bit table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cam\Documents\CSS\422\Final project\Asm-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F670217-B2FA-4D7A-B079-1F828BEFD520}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5243AD8-4BED-4BD6-99B1-EF3D07C28F47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12840" yWindow="2028" windowWidth="9648" windowHeight="8964" xr2:uid="{22575524-D629-4AB5-9811-2576EA4A51CC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
   <si>
     <t>MOVE</t>
   </si>
@@ -146,10 +146,10 @@
     <t>0x19D</t>
   </si>
   <si>
-    <t>0x19C</t>
-  </si>
-  <si>
-    <t>0x1</t>
+    <t>LSd</t>
+  </si>
+  <si>
+    <t>ASd</t>
   </si>
 </sst>
 </file>
@@ -520,7 +520,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:M25"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -687,492 +687,168 @@
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" t="str">
-        <f t="shared" si="0"/>
-        <v>19D</v>
-      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" t="str">
-        <f t="shared" si="0"/>
-        <v>19D</v>
-      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N8" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O9" t="str">
-        <f t="shared" si="0"/>
-        <v>19D</v>
-      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N10" t="s">
-        <v>38</v>
-      </c>
-      <c r="O10" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>38</v>
-      </c>
-      <c r="O11" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
-        <v>38</v>
-      </c>
-      <c r="O12" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13" t="s">
-        <v>36</v>
-      </c>
-      <c r="O13" t="str">
-        <f t="shared" si="0"/>
-        <v>19D</v>
-      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="N14" t="s">
-        <v>33</v>
-      </c>
-      <c r="O14" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="N15" t="s">
-        <v>33</v>
-      </c>
-      <c r="O15" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="N16" t="s">
-        <v>33</v>
-      </c>
-      <c r="O16" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="N17" t="s">
-        <v>33</v>
-      </c>
-      <c r="O17" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O21" t="str">
+        <f>DEC2HEX(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(B21,1)+C21,1)+D21,1)+E21,1)+F21,1)+G21,1)+H21,1)+I21,1)+J21,1)+K21,1)+L21,1)+M21)</f>
+        <v>19D</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -1284,6 +960,12 @@
       <c r="D24">
         <v>0</v>
       </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
       <c r="G24">
         <v>0</v>
       </c>
@@ -1291,20 +973,26 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
       </c>
       <c r="L24">
         <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
       </c>
       <c r="N24" t="s">
         <v>33</v>
       </c>
       <c r="O24" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19D</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -1320,10 +1008,31 @@
       <c r="D25">
         <v>0</v>
       </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
       <c r="N25" t="s">
@@ -1331,7 +1040,7 @@
       </c>
       <c r="O25" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19C</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -1347,18 +1056,39 @@
       <c r="D26">
         <v>0</v>
       </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
         <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
       </c>
       <c r="N26" t="s">
         <v>33</v>
       </c>
       <c r="O26" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19D</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -1374,10 +1104,31 @@
       <c r="D27">
         <v>0</v>
       </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
         <v>0</v>
       </c>
       <c r="N27" t="s">
@@ -1385,7 +1136,7 @@
       </c>
       <c r="O27" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19C</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -1401,18 +1152,39 @@
       <c r="D28">
         <v>0</v>
       </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
         <v>0</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
       </c>
       <c r="N28" t="s">
         <v>33</v>
       </c>
       <c r="O28" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19D</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -1428,10 +1200,31 @@
       <c r="D29">
         <v>0</v>
       </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
         <v>0</v>
       </c>
       <c r="N29" t="s">
@@ -1439,7 +1232,7 @@
       </c>
       <c r="O29" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19C</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -1455,18 +1248,36 @@
       <c r="D30">
         <v>0</v>
       </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
         <v>0</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
       </c>
       <c r="N30" t="s">
         <v>33</v>
       </c>
       <c r="O30" t="str">
         <f t="shared" si="1"/>
-        <v>800</v>
+        <v>99D</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
@@ -1482,18 +1293,36 @@
       <c r="D31">
         <v>0</v>
       </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
         <v>0</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
       </c>
       <c r="N31" t="s">
         <v>33</v>
       </c>
       <c r="O31" t="str">
         <f t="shared" si="1"/>
-        <v>800</v>
+        <v>99D</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -1537,7 +1366,10 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1545,23 +1377,26 @@
       <c r="D33">
         <v>0</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O33" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1569,18 +1404,18 @@
       <c r="D34">
         <v>0</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
       </c>
       <c r="N34" t="s">
         <v>33</v>
       </c>
       <c r="O34" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">

--- a/valid mode bit table.xlsx
+++ b/valid mode bit table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cam\Documents\CSS\422\Final project\Asm-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5243AD8-4BED-4BD6-99B1-EF3D07C28F47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3194117E-E574-4B68-8CF9-1A2ABE883058}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12840" yWindow="2028" windowWidth="9648" windowHeight="8964" xr2:uid="{22575524-D629-4AB5-9811-2576EA4A51CC}"/>
+    <workbookView minimized="1" xWindow="12840" yWindow="2028" windowWidth="9648" windowHeight="8964" xr2:uid="{22575524-D629-4AB5-9811-2576EA4A51CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>MOVE</t>
   </si>
@@ -135,12 +135,6 @@
   </si>
   <si>
     <t>0x</t>
-  </si>
-  <si>
-    <t>0x99F</t>
-  </si>
-  <si>
-    <t>0x180</t>
   </si>
   <si>
     <t>0x19D</t>
@@ -519,11 +513,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B91AC6F-7EF0-4CF7-8DD7-A7263D23304B}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="13" width="5.77734375" customWidth="1"/>
+    <col min="14" max="14" width="6.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -628,10 +626,10 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O3" t="str">
-        <f t="shared" ref="O3:O17" si="0">DEC2HEX(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(B3,1)+C3,1)+D3,1)+E3,1)+F3,1)+G3,1)+H3,1)+I3,1)+J3,1)+K3,1)+L3,1)+M3)</f>
+        <f t="shared" ref="O3:O4" si="0">DEC2HEX(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(B3,1)+C3,1)+D3,1)+E3,1)+F3,1)+G3,1)+H3,1)+I3,1)+J3,1)+K3,1)+L3,1)+M3)</f>
         <v>19D</v>
       </c>
     </row>
@@ -738,12 +736,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -762,7 +760,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -803,622 +801,637 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21" t="str">
+        <f>DEC2HEX(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(B21,1)+C21,1)+D21,1)+E21,1)+F21,1)+G21,1)+H21,1)+I21,1)+J21,1)+K21,1)+L21,1)+M21)</f>
+        <v>99F</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" t="str">
+        <f>DEC2HEX(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(B22,1)+C22,1)+D22,1)+E22,1)+F22,1)+G22,1)+H22,1)+I22,1)+J22,1)+K22,1)+L22,1)+M22)</f>
+        <v>18C</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23" t="str">
+        <f>DEC2HEX(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(B23,1)+C23,1)+D23,1)+E23,1)+F23,1)+G23,1)+H23,1)+I23,1)+J23,1)+K23,1)+L23,1)+M23)</f>
+        <v>19D</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" t="str">
+        <f>DEC2HEX(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(B24,1)+C24,1)+D24,1)+E24,1)+F24,1)+G24,1)+H24,1)+I24,1)+J24,1)+K24,1)+L24,1)+M24)</f>
+        <v>19C</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25" t="str">
+        <f>DEC2HEX(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(B25,1)+C25,1)+D25,1)+E25,1)+F25,1)+G25,1)+H25,1)+I25,1)+J25,1)+K25,1)+L25,1)+M25)</f>
+        <v>19D</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26" t="str">
+        <f>DEC2HEX(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(B26,1)+C26,1)+D26,1)+E26,1)+F26,1)+G26,1)+H26,1)+I26,1)+J26,1)+K26,1)+L26,1)+M26)</f>
+        <v>19C</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27" t="str">
+        <f>DEC2HEX(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(B27,1)+C27,1)+D27,1)+E27,1)+F27,1)+G27,1)+H27,1)+I27,1)+J27,1)+K27,1)+L27,1)+M27)</f>
+        <v>19D</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28" t="str">
+        <f>DEC2HEX(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(B28,1)+C28,1)+D28,1)+E28,1)+F28,1)+G28,1)+H28,1)+I28,1)+J28,1)+K28,1)+L28,1)+M28)</f>
+        <v>19C</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29" t="str">
+        <f>DEC2HEX(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(B29,1)+C29,1)+D29,1)+E29,1)+F29,1)+G29,1)+H29,1)+I29,1)+J29,1)+K29,1)+L29,1)+M29)</f>
+        <v>99D</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30" t="str">
+        <f>DEC2HEX(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(B30,1)+C30,1)+D30,1)+E30,1)+F30,1)+G30,1)+H30,1)+I30,1)+J30,1)+K30,1)+L30,1)+M30)</f>
+        <v>99D</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31" t="str">
+        <f>DEC2HEX(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(B31,1)+C31,1)+D31,1)+E31,1)+F31,1)+G31,1)+H31,1)+I31,1)+J31,1)+K31,1)+L31,1)+M31)</f>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32" t="str">
+        <f>DEC2HEX(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(B32,1)+C32,1)+D32,1)+E32,1)+F32,1)+G32,1)+H32,1)+I32,1)+J32,1)+K32,1)+L32,1)+M32)</f>
+        <v>19D</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33" t="str">
+        <f>DEC2HEX(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(B33,1)+C33,1)+D33,1)+E33,1)+F33,1)+G33,1)+H33,1)+I33,1)+J33,1)+K33,1)+L33,1)+M33)</f>
+        <v>19C</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O21" t="str">
-        <f>DEC2HEX(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(B21,1)+C21,1)+D21,1)+E21,1)+F21,1)+G21,1)+H21,1)+I21,1)+J21,1)+K21,1)+L21,1)+M21)</f>
-        <v>19D</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22" t="s">
-        <v>34</v>
-      </c>
-      <c r="O22" t="str">
-        <f t="shared" ref="O22:O35" si="1">DEC2HEX(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(B22,1)+C22,1)+D22,1)+E22,1)+F22,1)+G22,1)+H22,1)+I22,1)+J22,1)+K22,1)+L22,1)+M22)</f>
-        <v>99F</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23" t="s">
-        <v>33</v>
-      </c>
-      <c r="O23" t="str">
-        <f t="shared" si="1"/>
-        <v>18C</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="N24" t="s">
-        <v>33</v>
-      </c>
-      <c r="O24" t="str">
-        <f t="shared" si="1"/>
-        <v>19D</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25" t="s">
-        <v>33</v>
-      </c>
-      <c r="O25" t="str">
-        <f t="shared" si="1"/>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34" t="str">
+        <f>DEC2HEX(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(B34,1)+C34,1)+D34,1)+E34,1)+F34,1)+G34,1)+H34,1)+I34,1)+J34,1)+K34,1)+L34,1)+M34)</f>
         <v>19C</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26" t="s">
-        <v>33</v>
-      </c>
-      <c r="O26" t="str">
-        <f t="shared" si="1"/>
-        <v>19D</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27" t="s">
-        <v>33</v>
-      </c>
-      <c r="O27" t="str">
-        <f t="shared" si="1"/>
-        <v>19C</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="N28" t="s">
-        <v>33</v>
-      </c>
-      <c r="O28" t="str">
-        <f t="shared" si="1"/>
-        <v>19D</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29" t="s">
-        <v>33</v>
-      </c>
-      <c r="O29" t="str">
-        <f t="shared" si="1"/>
-        <v>19C</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="N30" t="s">
-        <v>33</v>
-      </c>
-      <c r="O30" t="str">
-        <f t="shared" si="1"/>
-        <v>99D</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="N31" t="s">
-        <v>33</v>
-      </c>
-      <c r="O31" t="str">
-        <f t="shared" si="1"/>
-        <v>99D</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32" t="s">
-        <v>33</v>
-      </c>
-      <c r="O32" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="N33" t="s">
-        <v>36</v>
-      </c>
-      <c r="O33" t="str">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="N34" t="s">
-        <v>33</v>
-      </c>
-      <c r="O34" t="str">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>23</v>
       </c>
@@ -1458,11 +1471,8 @@
       <c r="M35">
         <v>0</v>
       </c>
-      <c r="N35" t="s">
-        <v>35</v>
-      </c>
-      <c r="O35" t="str">
-        <f t="shared" si="1"/>
+      <c r="N35" t="str">
+        <f>DEC2HEX(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(B35,1)+C35,1)+D35,1)+E35,1)+F35,1)+G35,1)+H35,1)+I35,1)+J35,1)+K35,1)+L35,1)+M35)</f>
         <v>184</v>
       </c>
     </row>

--- a/valid mode bit table.xlsx
+++ b/valid mode bit table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cam\Documents\CSS\422\Final project\Asm-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3194117E-E574-4B68-8CF9-1A2ABE883058}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CE956B-B065-44B4-BF6D-BFCD4800CF6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="12840" yWindow="2028" windowWidth="9648" windowHeight="8964" xr2:uid="{22575524-D629-4AB5-9811-2576EA4A51CC}"/>
+    <workbookView xWindow="12840" yWindow="2028" windowWidth="9648" windowHeight="8964" xr2:uid="{22575524-D629-4AB5-9811-2576EA4A51CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
   <si>
     <t>MOVE</t>
   </si>
@@ -132,12 +132,6 @@
   </si>
   <si>
     <t>(An)</t>
-  </si>
-  <si>
-    <t>0x</t>
-  </si>
-  <si>
-    <t>0x19D</t>
   </si>
   <si>
     <t>LSd</t>
@@ -511,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B91AC6F-7EF0-4CF7-8DD7-A7263D23304B}">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,7 +517,7 @@
     <col min="14" max="14" width="6.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -543,7 +537,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -585,7 +579,7 @@
       </c>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,15 +619,12 @@
       <c r="M3">
         <v>1</v>
       </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" t="str">
-        <f t="shared" ref="O3:O4" si="0">DEC2HEX(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(B3,1)+C3,1)+D3,1)+E3,1)+F3,1)+G3,1)+H3,1)+I3,1)+J3,1)+K3,1)+L3,1)+M3)</f>
+      <c r="N3" t="str">
+        <f>DEC2HEX(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(B3,1)+C3,1)+D3,1)+E3,1)+F3,1)+G3,1)+H3,1)+I3,1)+J3,1)+K3,1)+L3,1)+M3)</f>
         <v>19D</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -673,65 +664,62 @@
       <c r="M4">
         <v>0</v>
       </c>
-      <c r="N4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" t="str">
-        <f t="shared" si="0"/>
+      <c r="N4" t="str">
+        <f>DEC2HEX(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(B4,1)+C4,1)+D4,1)+E4,1)+F4,1)+G4,1)+H4,1)+I4,1)+J4,1)+K4,1)+L4,1)+M4)</f>
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -842,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="str">
-        <f>DEC2HEX(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(B21,1)+C21,1)+D21,1)+E21,1)+F21,1)+G21,1)+H21,1)+I21,1)+J21,1)+K21,1)+L21,1)+M21)</f>
+        <f t="shared" ref="N21:N35" si="0">DEC2HEX(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(B21,1)+C21,1)+D21,1)+E21,1)+F21,1)+G21,1)+H21,1)+I21,1)+J21,1)+K21,1)+L21,1)+M21)</f>
         <v>99F</v>
       </c>
     </row>
@@ -887,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="str">
-        <f>DEC2HEX(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(B22,1)+C22,1)+D22,1)+E22,1)+F22,1)+G22,1)+H22,1)+I22,1)+J22,1)+K22,1)+L22,1)+M22)</f>
+        <f t="shared" si="0"/>
         <v>18C</v>
       </c>
     </row>
@@ -932,7 +920,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="str">
-        <f>DEC2HEX(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(B23,1)+C23,1)+D23,1)+E23,1)+F23,1)+G23,1)+H23,1)+I23,1)+J23,1)+K23,1)+L23,1)+M23)</f>
+        <f t="shared" si="0"/>
         <v>19D</v>
       </c>
     </row>
@@ -977,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="str">
-        <f>DEC2HEX(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(B24,1)+C24,1)+D24,1)+E24,1)+F24,1)+G24,1)+H24,1)+I24,1)+J24,1)+K24,1)+L24,1)+M24)</f>
+        <f t="shared" si="0"/>
         <v>19C</v>
       </c>
     </row>
@@ -1022,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="N25" t="str">
-        <f>DEC2HEX(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(B25,1)+C25,1)+D25,1)+E25,1)+F25,1)+G25,1)+H25,1)+I25,1)+J25,1)+K25,1)+L25,1)+M25)</f>
+        <f t="shared" si="0"/>
         <v>19D</v>
       </c>
     </row>
@@ -1067,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="str">
-        <f>DEC2HEX(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(B26,1)+C26,1)+D26,1)+E26,1)+F26,1)+G26,1)+H26,1)+I26,1)+J26,1)+K26,1)+L26,1)+M26)</f>
+        <f t="shared" si="0"/>
         <v>19C</v>
       </c>
     </row>
@@ -1112,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="N27" t="str">
-        <f>DEC2HEX(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(B27,1)+C27,1)+D27,1)+E27,1)+F27,1)+G27,1)+H27,1)+I27,1)+J27,1)+K27,1)+L27,1)+M27)</f>
+        <f t="shared" si="0"/>
         <v>19D</v>
       </c>
     </row>
@@ -1157,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="str">
-        <f>DEC2HEX(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(B28,1)+C28,1)+D28,1)+E28,1)+F28,1)+G28,1)+H28,1)+I28,1)+J28,1)+K28,1)+L28,1)+M28)</f>
+        <f t="shared" si="0"/>
         <v>19C</v>
       </c>
     </row>
@@ -1202,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="N29" t="str">
-        <f>DEC2HEX(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(B29,1)+C29,1)+D29,1)+E29,1)+F29,1)+G29,1)+H29,1)+I29,1)+J29,1)+K29,1)+L29,1)+M29)</f>
+        <f t="shared" si="0"/>
         <v>99D</v>
       </c>
     </row>
@@ -1247,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="N30" t="str">
-        <f>DEC2HEX(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(B30,1)+C30,1)+D30,1)+E30,1)+F30,1)+G30,1)+H30,1)+I30,1)+J30,1)+K30,1)+L30,1)+M30)</f>
+        <f t="shared" si="0"/>
         <v>99D</v>
       </c>
     </row>
@@ -1292,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="str">
-        <f>DEC2HEX(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(B31,1)+C31,1)+D31,1)+E31,1)+F31,1)+G31,1)+H31,1)+I31,1)+J31,1)+K31,1)+L31,1)+M31)</f>
+        <f t="shared" si="0"/>
         <v>184</v>
       </c>
     </row>
@@ -1337,13 +1325,13 @@
         <v>1</v>
       </c>
       <c r="N32" t="str">
-        <f>DEC2HEX(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(B32,1)+C32,1)+D32,1)+E32,1)+F32,1)+G32,1)+H32,1)+I32,1)+J32,1)+K32,1)+L32,1)+M32)</f>
+        <f t="shared" si="0"/>
         <v>19D</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1382,13 +1370,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="str">
-        <f>DEC2HEX(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(B33,1)+C33,1)+D33,1)+E33,1)+F33,1)+G33,1)+H33,1)+I33,1)+J33,1)+K33,1)+L33,1)+M33)</f>
+        <f t="shared" si="0"/>
         <v>19C</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1427,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="str">
-        <f>DEC2HEX(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(B34,1)+C34,1)+D34,1)+E34,1)+F34,1)+G34,1)+H34,1)+I34,1)+J34,1)+K34,1)+L34,1)+M34)</f>
+        <f t="shared" si="0"/>
         <v>19C</v>
       </c>
     </row>
@@ -1472,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="str">
-        <f>DEC2HEX(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(_xlfn.BITLSHIFT(B35,1)+C35,1)+D35,1)+E35,1)+F35,1)+G35,1)+H35,1)+I35,1)+J35,1)+K35,1)+L35,1)+M35)</f>
+        <f t="shared" si="0"/>
         <v>184</v>
       </c>
     </row>

--- a/valid mode bit table.xlsx
+++ b/valid mode bit table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cam\Documents\CSS\422\Final project\Asm-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CE956B-B065-44B4-BF6D-BFCD4800CF6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E06B73-0A4A-42DD-AA19-290F675415E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12840" yWindow="2028" windowWidth="9648" windowHeight="8964" xr2:uid="{22575524-D629-4AB5-9811-2576EA4A51CC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{22575524-D629-4AB5-9811-2576EA4A51CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B91AC6F-7EF0-4CF7-8DD7-A7263D23304B}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -914,14 +914,14 @@
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23">
         <v>1</v>
       </c>
       <c r="N23" t="str">
         <f t="shared" si="0"/>
-        <v>19D</v>
+        <v>19F</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -959,14 +959,14 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24" t="str">
         <f t="shared" si="0"/>
-        <v>19C</v>
+        <v>19E</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">

--- a/valid mode bit table.xlsx
+++ b/valid mode bit table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cam\Documents\CSS\422\Final project\Asm-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E06B73-0A4A-42DD-AA19-290F675415E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECB399B-C557-40C7-A90B-C7038C7C32DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{22575524-D629-4AB5-9811-2576EA4A51CC}"/>
+    <workbookView xWindow="3816" yWindow="1932" windowWidth="17280" windowHeight="8964" xr2:uid="{22575524-D629-4AB5-9811-2576EA4A51CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B91AC6F-7EF0-4CF7-8DD7-A7263D23304B}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -959,14 +959,14 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24" t="str">
         <f t="shared" si="0"/>
-        <v>19E</v>
+        <v>19C</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -1004,14 +1004,14 @@
         <v>1</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
         <v>1</v>
       </c>
       <c r="N25" t="str">
         <f t="shared" si="0"/>
-        <v>19D</v>
+        <v>19F</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -1094,14 +1094,14 @@
         <v>1</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27">
         <v>1</v>
       </c>
       <c r="N27" t="str">
         <f t="shared" si="0"/>
-        <v>19D</v>
+        <v>19F</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
